--- a/00_プロジェクト管理/ルール.xlsx
+++ b/00_プロジェクト管理/ルール.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_39a3\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_e2c\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_09747C86A8CE1B5A8DC69A2649D195202C73F843" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{586949DB-03F4-4C22-AFC8-CF8CED508644}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_09747C86A8CE1B5A8DC69A2649D195202C73F843" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A04B16FE-E4DF-446E-8A20-FAFA1D530547}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>グループ７</t>
   </si>
@@ -60,13 +60,25 @@
   </si>
   <si>
     <t>意見を臆せず言う</t>
+  </si>
+  <si>
+    <t>ファイル名について</t>
+  </si>
+  <si>
+    <t>システム名（行程名）_07.拡張子</t>
+  </si>
+  <si>
+    <t>例：三目並べ（構造化分析）_07.asta</t>
+  </si>
+  <si>
+    <t>に統一すること</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +91,13 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -102,11 +121,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -421,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -434,12 +454,12 @@
     <col min="3" max="3" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.75">
+    <row r="3" spans="1:5" ht="18.75">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -447,7 +467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18.75">
+    <row r="5" spans="1:5" ht="18.75">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -458,7 +478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75">
+    <row r="6" spans="1:5" ht="18.75">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -466,7 +486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18.75">
+    <row r="7" spans="1:5" ht="18.75">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -474,7 +494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18.75">
+    <row r="8" spans="1:5" ht="18.75">
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -482,7 +502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18.75">
+    <row r="9" spans="1:5" ht="18.75">
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -490,7 +510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18.75">
+    <row r="10" spans="1:5" ht="18.75">
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -498,8 +518,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18.75">
+    <row r="11" spans="1:5" ht="18.75">
       <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="18.75">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18.75">
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18.75">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -508,23 +546,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -540,6 +563,8 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -590,6 +615,18 @@
     <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -692,25 +729,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C66B185-C7AE-4219-9354-C93575A37037}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09F47BF0-0C33-47BB-B205-51E330134787}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{383D7CEC-630C-4E55-B51F-047C3F437715}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6D0248B3-DE00-4229-B65C-35BE2C4244B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -725,4 +760,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C66B185-C7AE-4219-9354-C93575A37037}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09F47BF0-0C33-47BB-B205-51E330134787}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>